--- a/Översikt MÖLNDAL.xlsx
+++ b/Översikt MÖLNDAL.xlsx
@@ -575,7 +575,7 @@
         <v>44322</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44551</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44586.54900462963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,14 +833,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 393-2025</t>
+          <t>A 49789-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45663</v>
+        <v>45212</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -853,16 +853,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -887,49 +887,45 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Trubbfjädermossa</t>
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 393-2025 artfynd.xlsx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 49789-2023 artfynd.xlsx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 393-2025 karta.png", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 49789-2023 karta.png", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 393-2025 FSC-klagomål.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 49789-2023 FSC-klagomål.docx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 393-2025 FSC-klagomål mail.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 49789-2023 FSC-klagomål mail.docx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 393-2025 tillsynsbegäran.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 49789-2023 tillsynsbegäran.docx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 393-2025 tillsynsbegäran mail.docx", "A 393-2025")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/fåglar/A 393-2025 prioriterade fågelarter.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 49789-2023 tillsynsbegäran mail.docx", "A 49789-2023")</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 49789-2023</t>
+          <t>A 393-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45212</v>
+        <v>45663</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -942,17 +938,17 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
@@ -966,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -976,31 +972,35 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Trubbfjädermossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 49789-2023 artfynd.xlsx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 393-2025 artfynd.xlsx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 49789-2023 karta.png", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 393-2025 karta.png", "A 393-2025")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 49789-2023 FSC-klagomål.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 393-2025 FSC-klagomål.docx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 49789-2023 FSC-klagomål mail.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 393-2025 FSC-klagomål mail.docx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 49789-2023 tillsynsbegäran.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 393-2025 tillsynsbegäran.docx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 49789-2023 tillsynsbegäran mail.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 393-2025 tillsynsbegäran mail.docx", "A 393-2025")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/fåglar/A 393-2025 prioriterade fågelarter.docx", "A 393-2025")</f>
         <v/>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
         <v>45677</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>45847.59914351852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44516.6296875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44831</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44586.54415509259</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44722.56074074074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44322</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44462</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>44739.6103125</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1657,14 +1657,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 6042-2024</t>
+          <t>A 38-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45336</v>
+        <v>44564.37274305556</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1714,14 +1714,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 33201-2023</t>
+          <t>A 12977-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45127.42379629629</v>
+        <v>45734.45465277778</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1771,14 +1771,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 37570-2025</t>
+          <t>A 21536-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45880.37358796296</v>
+        <v>45441.59925925926</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1828,14 +1828,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 12977-2025</t>
+          <t>A 61167-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45734.45465277778</v>
+        <v>45645</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1885,14 +1885,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 6258-2024</t>
+          <t>A 43067-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45337.77947916667</v>
+        <v>45567.47446759259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1942,14 +1942,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 61167-2024</t>
+          <t>A 12273-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45645</v>
+        <v>45378.47817129629</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1999,14 +1999,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 11256-2024</t>
+          <t>A 44926-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45371.66233796296</v>
+        <v>45918.55856481481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2056,14 +2056,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 38-2022</t>
+          <t>A 33201-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44564.37274305556</v>
+        <v>45127.42379629629</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2113,14 +2113,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 44926-2025</t>
+          <t>A 6042-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45918.55856481481</v>
+        <v>45336</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2170,14 +2170,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 46379-2025</t>
+          <t>A 37570-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45925</v>
+        <v>45880.37358796296</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>7.1</v>
+        <v>0.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2227,14 +2227,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 62768-2025</t>
+          <t>A 31321-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>46008.59856481481</v>
+        <v>45833</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2284,14 +2284,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 46384-2025</t>
+          <t>A 48265-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45925</v>
+        <v>45933</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2341,14 +2341,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 61178-2024</t>
+          <t>A 22953-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45645</v>
+        <v>45072</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>6.6</v>
+        <v>1.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2398,14 +2398,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 8639-2023</t>
+          <t>A 62804-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44977.95614583333</v>
+        <v>45271</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2455,14 +2455,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 31321-2025</t>
+          <t>A 3811-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45833</v>
+        <v>45321.673125</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>6.4</v>
+        <v>0.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2512,14 +2512,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 48265-2025</t>
+          <t>A 3676-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45933</v>
+        <v>44586</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2569,14 +2569,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 60809-2024</t>
+          <t>A 6258-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45644.61414351852</v>
+        <v>45337.77947916667</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2626,14 +2626,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 88-2025</t>
+          <t>A 46379-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45659.46386574074</v>
+        <v>45925</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.4</v>
+        <v>7.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2683,14 +2683,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 43067-2024</t>
+          <t>A 88-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45567.47446759259</v>
+        <v>45659.46386574074</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2740,14 +2740,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 21536-2024</t>
+          <t>A 8639-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45441.59925925926</v>
+        <v>44977.95614583333</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2797,14 +2797,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 56133-2023</t>
+          <t>A 62768-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45240</v>
+        <v>46008.59856481481</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2854,14 +2854,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 19295-2025</t>
+          <t>A 61178-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45769.56212962963</v>
+        <v>45645</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.8</v>
+        <v>6.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2911,14 +2911,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 12273-2024</t>
+          <t>A 46384-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45378.47817129629</v>
+        <v>45925</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2968,14 +2968,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 3811-2024</t>
+          <t>A 60809-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45321.673125</v>
+        <v>45644.61414351852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3025,14 +3025,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 11261-2024</t>
+          <t>A 11256-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45371.67425925926</v>
+        <v>45371.66233796296</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3082,14 +3082,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 3676-2022</t>
+          <t>A 24771-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44586</v>
+        <v>45084.64277777778</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3139,14 +3139,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 24771-2023</t>
+          <t>A 56133-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45084.64277777778</v>
+        <v>45240</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3196,14 +3196,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 62804-2023</t>
+          <t>A 11261-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45271</v>
+        <v>45371.67425925926</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3253,14 +3253,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 22953-2023</t>
+          <t>A 19295-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45072</v>
+        <v>45769.56212962963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>45782.59390046296</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>45785.29449074074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>

--- a/Översikt MÖLNDAL.xlsx
+++ b/Översikt MÖLNDAL.xlsx
@@ -575,7 +575,7 @@
         <v>44322</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44551</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44586.54900462963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>45212</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>45663</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>45677</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>45847.59914351852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44516.6296875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44831</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44586.54415509259</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44722.56074074074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44322</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44462</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>44739.6103125</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>44564.37274305556</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>45734.45465277778</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>45441.59925925926</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>45645</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>45567.47446759259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>45378.47817129629</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>45918.55856481481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>45127.42379629629</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>45336</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>45880.37358796296</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>45833</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>45933</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>45072</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>45271</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>45321.673125</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>44586</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>45337.77947916667</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>45925</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>45659.46386574074</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>44977.95614583333</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>46008.59856481481</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>45645</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>45925</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>45644.61414351852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>45371.66233796296</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>45084.64277777778</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>45240</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>45371.67425925926</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>45769.56212962963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>45782.59390046296</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>45785.29449074074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>

--- a/Översikt MÖLNDAL.xlsx
+++ b/Översikt MÖLNDAL.xlsx
@@ -575,7 +575,7 @@
         <v>44322</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44551</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44586.54900462963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>45212</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>45663</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>45677</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>45847.59914351852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44516.6296875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44831</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44586.54415509259</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44722.56074074074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44322</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44462</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>44739.6103125</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>44564.37274305556</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>45734.45465277778</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>45441.59925925926</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>45645</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>45567.47446759259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>45378.47817129629</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>45918.55856481481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>45127.42379629629</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>45336</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>45880.37358796296</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>45833</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>45933</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>45072</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>45271</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>45321.673125</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>44586</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>45337.77947916667</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>45925</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>45659.46386574074</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>44977.95614583333</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>46008.59856481481</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>45645</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>45925</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>45644.61414351852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>45371.66233796296</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>45084.64277777778</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>45240</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>45371.67425925926</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>45769.56212962963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>45782.59390046296</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>45785.29449074074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>

--- a/Översikt MÖLNDAL.xlsx
+++ b/Översikt MÖLNDAL.xlsx
@@ -575,7 +575,7 @@
         <v>44322</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44551</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44586.54900462963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,14 +833,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 49789-2023</t>
+          <t>A 2842-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45212</v>
+        <v>45677</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -853,13 +853,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -887,31 +887,35 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>Trubbfjädermossa</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 49789-2023 artfynd.xlsx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 2842-2025 artfynd.xlsx", "A 2842-2025")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 49789-2023 karta.png", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 2842-2025 karta.png", "A 2842-2025")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 49789-2023 FSC-klagomål.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 2842-2025 FSC-klagomål.docx", "A 2842-2025")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 49789-2023 FSC-klagomål mail.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 2842-2025 FSC-klagomål mail.docx", "A 2842-2025")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 49789-2023 tillsynsbegäran.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 2842-2025 tillsynsbegäran.docx", "A 2842-2025")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 49789-2023 tillsynsbegäran mail.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 2842-2025 tillsynsbegäran mail.docx", "A 2842-2025")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/fåglar/A 2842-2025 prioriterade fågelarter.docx", "A 2842-2025")</f>
         <v/>
       </c>
     </row>
@@ -925,7 +929,7 @@
         <v>45663</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,14 +1011,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 2842-2025</t>
+          <t>A 34574-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45677</v>
+        <v>45847.59914351852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1027,7 +1031,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.7</v>
+        <v>7.4</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -1061,49 +1065,45 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 2842-2025 artfynd.xlsx", "A 2842-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 34574-2025 artfynd.xlsx", "A 34574-2025")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 2842-2025 karta.png", "A 2842-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 34574-2025 karta.png", "A 34574-2025")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 2842-2025 FSC-klagomål.docx", "A 2842-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 34574-2025 FSC-klagomål.docx", "A 34574-2025")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 2842-2025 FSC-klagomål mail.docx", "A 2842-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 34574-2025 FSC-klagomål mail.docx", "A 34574-2025")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 2842-2025 tillsynsbegäran.docx", "A 2842-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 34574-2025 tillsynsbegäran.docx", "A 34574-2025")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 2842-2025 tillsynsbegäran mail.docx", "A 2842-2025")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/fåglar/A 2842-2025 prioriterade fågelarter.docx", "A 2842-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 34574-2025 tillsynsbegäran mail.docx", "A 34574-2025")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 34574-2025</t>
+          <t>A 49789-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45847.59914351852</v>
+        <v>45212</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1116,13 +1116,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>7.4</v>
+        <v>3.8</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1150,31 +1150,31 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Trubbfjädermossa</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 34574-2025 artfynd.xlsx", "A 34574-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 49789-2023 artfynd.xlsx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 34574-2025 karta.png", "A 34574-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 49789-2023 karta.png", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 34574-2025 FSC-klagomål.docx", "A 34574-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 49789-2023 FSC-klagomål.docx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 34574-2025 FSC-klagomål mail.docx", "A 34574-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 49789-2023 FSC-klagomål mail.docx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 34574-2025 tillsynsbegäran.docx", "A 34574-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 49789-2023 tillsynsbegäran.docx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 34574-2025 tillsynsbegäran mail.docx", "A 34574-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 49789-2023 tillsynsbegäran mail.docx", "A 49789-2023")</f>
         <v/>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
         <v>44516.6296875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44831</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44586.54415509259</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44722.56074074074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44322</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44462</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>44739.6103125</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1657,14 +1657,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 38-2022</t>
+          <t>A 11256-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44564.37274305556</v>
+        <v>45371.66233796296</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1714,14 +1714,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 12977-2025</t>
+          <t>A 38-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45734.45465277778</v>
+        <v>44564.37274305556</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1771,14 +1771,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 21536-2024</t>
+          <t>A 6258-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45441.59925925926</v>
+        <v>45337.77947916667</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1828,14 +1828,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 61167-2024</t>
+          <t>A 12977-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45645</v>
+        <v>45734.45465277778</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1885,14 +1885,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 43067-2024</t>
+          <t>A 61167-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45567.47446759259</v>
+        <v>45645</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1942,14 +1942,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 12273-2024</t>
+          <t>A 8639-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45378.47817129629</v>
+        <v>44977.95614583333</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1999,14 +1999,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 44926-2025</t>
+          <t>A 60809-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45918.55856481481</v>
+        <v>45644.61414351852</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2056,14 +2056,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 33201-2023</t>
+          <t>A 6042-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45127.42379629629</v>
+        <v>45336</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2113,14 +2113,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 6042-2024</t>
+          <t>A 33201-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45336</v>
+        <v>45127.42379629629</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2170,14 +2170,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 37570-2025</t>
+          <t>A 44926-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45880.37358796296</v>
+        <v>45918.55856481481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2227,14 +2227,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 31321-2025</t>
+          <t>A 37570-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45833</v>
+        <v>45880.37358796296</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>6.4</v>
+        <v>0.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2284,14 +2284,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 48265-2025</t>
+          <t>A 88-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45933</v>
+        <v>45659.46386574074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2341,14 +2341,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 22953-2023</t>
+          <t>A 31321-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45072</v>
+        <v>45833</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.9</v>
+        <v>6.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2398,14 +2398,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 62804-2023</t>
+          <t>A 48265-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45271</v>
+        <v>45933</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2455,14 +2455,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 3811-2024</t>
+          <t>A 43067-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45321.673125</v>
+        <v>45567.47446759259</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2512,14 +2512,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 3676-2022</t>
+          <t>A 21536-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44586</v>
+        <v>45441.59925925926</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2569,14 +2569,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 6258-2024</t>
+          <t>A 46379-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45337.77947916667</v>
+        <v>45925</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.4</v>
+        <v>7.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2626,14 +2626,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 46379-2025</t>
+          <t>A 56133-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45925</v>
+        <v>45240</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>7.1</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2683,14 +2683,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 88-2025</t>
+          <t>A 19295-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45659.46386574074</v>
+        <v>45769.56212962963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2740,14 +2740,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 8639-2023</t>
+          <t>A 62768-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44977.95614583333</v>
+        <v>46008.59856481481</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2797,14 +2797,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 62768-2025</t>
+          <t>A 12273-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>46008.59856481481</v>
+        <v>45378.47817129629</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2854,14 +2854,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 61178-2024</t>
+          <t>A 3811-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45645</v>
+        <v>45321.673125</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>6.6</v>
+        <v>0.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2911,14 +2911,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 46384-2025</t>
+          <t>A 61178-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45925</v>
+        <v>45645</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.1</v>
+        <v>6.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2968,14 +2968,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 60809-2024</t>
+          <t>A 46384-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45644.61414351852</v>
+        <v>45925</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3025,14 +3025,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 11256-2024</t>
+          <t>A 11261-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45371.66233796296</v>
+        <v>45371.67425925926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3082,14 +3082,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 24771-2023</t>
+          <t>A 3676-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45084.64277777778</v>
+        <v>44586</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3139,14 +3139,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 56133-2023</t>
+          <t>A 24771-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45240</v>
+        <v>45084.64277777778</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3196,14 +3196,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 11261-2024</t>
+          <t>A 62804-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45371.67425925926</v>
+        <v>45271</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3253,14 +3253,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 19295-2025</t>
+          <t>A 22953-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45769.56212962963</v>
+        <v>45072</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>45782.59390046296</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>45785.29449074074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>

--- a/Översikt MÖLNDAL.xlsx
+++ b/Översikt MÖLNDAL.xlsx
@@ -575,7 +575,7 @@
         <v>44322</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44551</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44586.54900462963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,14 +833,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 2842-2025</t>
+          <t>A 393-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45677</v>
+        <v>45663</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.7</v>
+        <v>5.1</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -887,49 +887,49 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 2842-2025 artfynd.xlsx", "A 2842-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 393-2025 artfynd.xlsx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 2842-2025 karta.png", "A 2842-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 393-2025 karta.png", "A 393-2025")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 2842-2025 FSC-klagomål.docx", "A 2842-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 393-2025 FSC-klagomål.docx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 2842-2025 FSC-klagomål mail.docx", "A 2842-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 393-2025 FSC-klagomål mail.docx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 2842-2025 tillsynsbegäran.docx", "A 2842-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 393-2025 tillsynsbegäran.docx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 2842-2025 tillsynsbegäran mail.docx", "A 2842-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 393-2025 tillsynsbegäran mail.docx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/fåglar/A 2842-2025 prioriterade fågelarter.docx", "A 2842-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/fåglar/A 393-2025 prioriterade fågelarter.docx", "A 393-2025")</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 393-2025</t>
+          <t>A 49789-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45663</v>
+        <v>45212</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -942,16 +942,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -976,49 +976,45 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Trubbfjädermossa</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 393-2025 artfynd.xlsx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 49789-2023 artfynd.xlsx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 393-2025 karta.png", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 49789-2023 karta.png", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 393-2025 FSC-klagomål.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 49789-2023 FSC-klagomål.docx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 393-2025 FSC-klagomål mail.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 49789-2023 FSC-klagomål mail.docx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 393-2025 tillsynsbegäran.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 49789-2023 tillsynsbegäran.docx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 393-2025 tillsynsbegäran mail.docx", "A 393-2025")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/fåglar/A 393-2025 prioriterade fågelarter.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 49789-2023 tillsynsbegäran mail.docx", "A 49789-2023")</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 34574-2025</t>
+          <t>A 2842-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45847.59914351852</v>
+        <v>45677</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1031,7 +1027,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>7.4</v>
+        <v>2.7</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -1065,45 +1061,49 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 34574-2025 artfynd.xlsx", "A 34574-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 2842-2025 artfynd.xlsx", "A 2842-2025")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 34574-2025 karta.png", "A 34574-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 2842-2025 karta.png", "A 2842-2025")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 34574-2025 FSC-klagomål.docx", "A 34574-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 2842-2025 FSC-klagomål.docx", "A 2842-2025")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 34574-2025 FSC-klagomål mail.docx", "A 34574-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 2842-2025 FSC-klagomål mail.docx", "A 2842-2025")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 34574-2025 tillsynsbegäran.docx", "A 34574-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 2842-2025 tillsynsbegäran.docx", "A 2842-2025")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 34574-2025 tillsynsbegäran mail.docx", "A 34574-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 2842-2025 tillsynsbegäran mail.docx", "A 2842-2025")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/fåglar/A 2842-2025 prioriterade fågelarter.docx", "A 2842-2025")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 49789-2023</t>
+          <t>A 34574-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45212</v>
+        <v>45847.59914351852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1116,13 +1116,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.8</v>
+        <v>7.4</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1150,31 +1150,31 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Trubbfjädermossa</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 49789-2023 artfynd.xlsx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 34574-2025 artfynd.xlsx", "A 34574-2025")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 49789-2023 karta.png", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 34574-2025 karta.png", "A 34574-2025")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 49789-2023 FSC-klagomål.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 34574-2025 FSC-klagomål.docx", "A 34574-2025")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 49789-2023 FSC-klagomål mail.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 34574-2025 FSC-klagomål mail.docx", "A 34574-2025")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 49789-2023 tillsynsbegäran.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 34574-2025 tillsynsbegäran.docx", "A 34574-2025")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 49789-2023 tillsynsbegäran mail.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 34574-2025 tillsynsbegäran mail.docx", "A 34574-2025")</f>
         <v/>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
         <v>44516.6296875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44831</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44586.54415509259</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44722.56074074074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44322</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44462</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>44739.6103125</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1657,14 +1657,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 11256-2024</t>
+          <t>A 56133-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45371.66233796296</v>
+        <v>45240</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1721,7 +1721,7 @@
         <v>44564.37274305556</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1771,14 +1771,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 6258-2024</t>
+          <t>A 12977-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45337.77947916667</v>
+        <v>45734.45465277778</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1828,14 +1828,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 12977-2025</t>
+          <t>A 61167-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45734.45465277778</v>
+        <v>45645</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1885,14 +1885,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 61167-2024</t>
+          <t>A 11261-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45645</v>
+        <v>45371.67425925926</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1942,14 +1942,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 8639-2023</t>
+          <t>A 19295-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44977.95614583333</v>
+        <v>45769.56212962963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1999,14 +1999,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 60809-2024</t>
+          <t>A 21477-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45644.61414351852</v>
+        <v>45782.59390046296</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2056,14 +2056,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 6042-2024</t>
+          <t>A 22033-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45336</v>
+        <v>45785.29449074074</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.7</v>
+        <v>5.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2113,14 +2113,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 33201-2023</t>
+          <t>A 21536-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45127.42379629629</v>
+        <v>45441.59925925926</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>45918.55856481481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2227,14 +2227,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 37570-2025</t>
+          <t>A 43067-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45880.37358796296</v>
+        <v>45567.47446759259</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2284,14 +2284,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 88-2025</t>
+          <t>A 12273-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45659.46386574074</v>
+        <v>45378.47817129629</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2341,14 +2341,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 31321-2025</t>
+          <t>A 33201-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45833</v>
+        <v>45127.42379629629</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>6.4</v>
+        <v>0.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2398,14 +2398,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 48265-2025</t>
+          <t>A 6042-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45933</v>
+        <v>45336</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2455,14 +2455,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 43067-2024</t>
+          <t>A 37570-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45567.47446759259</v>
+        <v>45880.37358796296</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2512,14 +2512,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 21536-2024</t>
+          <t>A 22953-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45441.59925925926</v>
+        <v>45072</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2569,14 +2569,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 46379-2025</t>
+          <t>A 62804-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45925</v>
+        <v>45271</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>7.1</v>
+        <v>0.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2626,14 +2626,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 56133-2023</t>
+          <t>A 31321-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45240</v>
+        <v>45833</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>6.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2683,14 +2683,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 19295-2025</t>
+          <t>A 48265-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45769.56212962963</v>
+        <v>45933</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2740,14 +2740,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 62768-2025</t>
+          <t>A 3811-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>46008.59856481481</v>
+        <v>45321.673125</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2797,14 +2797,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 12273-2024</t>
+          <t>A 3676-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45378.47817129629</v>
+        <v>44586</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2854,14 +2854,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 3811-2024</t>
+          <t>A 6258-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45321.673125</v>
+        <v>45337.77947916667</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2911,14 +2911,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 61178-2024</t>
+          <t>A 46379-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45645</v>
+        <v>45925</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2968,14 +2968,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 46384-2025</t>
+          <t>A 88-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45925</v>
+        <v>45659.46386574074</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3025,14 +3025,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 11261-2024</t>
+          <t>A 8639-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45371.67425925926</v>
+        <v>44977.95614583333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3082,14 +3082,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 3676-2022</t>
+          <t>A 62768-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44586</v>
+        <v>46008.59856481481</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>4.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3139,14 +3139,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 24771-2023</t>
+          <t>A 61178-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45084.64277777778</v>
+        <v>45645</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>6.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3196,14 +3196,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 62804-2023</t>
+          <t>A 46384-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45271</v>
+        <v>45925</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3253,14 +3253,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 22953-2023</t>
+          <t>A 60809-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45072</v>
+        <v>45644.61414351852</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3310,14 +3310,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 21477-2025</t>
+          <t>A 11256-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45782.59390046296</v>
+        <v>45371.66233796296</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3367,14 +3367,14 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 22033-2025</t>
+          <t>A 24771-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45785.29449074074</v>
+        <v>45084.64277777778</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5.2</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>

--- a/Översikt MÖLNDAL.xlsx
+++ b/Översikt MÖLNDAL.xlsx
@@ -575,7 +575,7 @@
         <v>44322</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44551</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44586.54900462963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,14 +833,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 393-2025</t>
+          <t>A 2842-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45663</v>
+        <v>45677</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5.1</v>
+        <v>2.7</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -887,49 +887,49 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 393-2025 artfynd.xlsx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 2842-2025 artfynd.xlsx", "A 2842-2025")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 393-2025 karta.png", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 2842-2025 karta.png", "A 2842-2025")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 393-2025 FSC-klagomål.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 2842-2025 FSC-klagomål.docx", "A 2842-2025")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 393-2025 FSC-klagomål mail.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 2842-2025 FSC-klagomål mail.docx", "A 2842-2025")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 393-2025 tillsynsbegäran.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 2842-2025 tillsynsbegäran.docx", "A 2842-2025")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 393-2025 tillsynsbegäran mail.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 2842-2025 tillsynsbegäran mail.docx", "A 2842-2025")</f>
         <v/>
       </c>
       <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/fåglar/A 393-2025 prioriterade fågelarter.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/fåglar/A 2842-2025 prioriterade fågelarter.docx", "A 2842-2025")</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 49789-2023</t>
+          <t>A 34574-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45212</v>
+        <v>45847.59914351852</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -942,13 +942,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.8</v>
+        <v>7.4</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -976,45 +976,45 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Trubbfjädermossa</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 49789-2023 artfynd.xlsx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 34574-2025 artfynd.xlsx", "A 34574-2025")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 49789-2023 karta.png", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 34574-2025 karta.png", "A 34574-2025")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 49789-2023 FSC-klagomål.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 34574-2025 FSC-klagomål.docx", "A 34574-2025")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 49789-2023 FSC-klagomål mail.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 34574-2025 FSC-klagomål mail.docx", "A 34574-2025")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 49789-2023 tillsynsbegäran.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 34574-2025 tillsynsbegäran.docx", "A 34574-2025")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 49789-2023 tillsynsbegäran mail.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 34574-2025 tillsynsbegäran mail.docx", "A 34574-2025")</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 2842-2025</t>
+          <t>A 393-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45677</v>
+        <v>45663</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.7</v>
+        <v>5.1</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1061,49 +1061,49 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 2842-2025 artfynd.xlsx", "A 2842-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 393-2025 artfynd.xlsx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 2842-2025 karta.png", "A 2842-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 393-2025 karta.png", "A 393-2025")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 2842-2025 FSC-klagomål.docx", "A 2842-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 393-2025 FSC-klagomål.docx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 2842-2025 FSC-klagomål mail.docx", "A 2842-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 393-2025 FSC-klagomål mail.docx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 2842-2025 tillsynsbegäran.docx", "A 2842-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 393-2025 tillsynsbegäran.docx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 2842-2025 tillsynsbegäran mail.docx", "A 2842-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 393-2025 tillsynsbegäran mail.docx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/fåglar/A 2842-2025 prioriterade fågelarter.docx", "A 2842-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/fåglar/A 393-2025 prioriterade fågelarter.docx", "A 393-2025")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 34574-2025</t>
+          <t>A 49789-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45847.59914351852</v>
+        <v>45212</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1116,13 +1116,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>7.4</v>
+        <v>3.8</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1150,31 +1150,31 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Trubbfjädermossa</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 34574-2025 artfynd.xlsx", "A 34574-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 49789-2023 artfynd.xlsx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 34574-2025 karta.png", "A 34574-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 49789-2023 karta.png", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 34574-2025 FSC-klagomål.docx", "A 34574-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 49789-2023 FSC-klagomål.docx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 34574-2025 FSC-klagomål mail.docx", "A 34574-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 49789-2023 FSC-klagomål mail.docx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 34574-2025 tillsynsbegäran.docx", "A 34574-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 49789-2023 tillsynsbegäran.docx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 34574-2025 tillsynsbegäran mail.docx", "A 34574-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 49789-2023 tillsynsbegäran mail.docx", "A 49789-2023")</f>
         <v/>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
         <v>44516.6296875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44831</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1367,14 +1367,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 3673-2022</t>
+          <t>A 23877-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44586.54415509259</v>
+        <v>44722.56074074074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5.6</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1424,14 +1424,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 23877-2022</t>
+          <t>A 21842-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44722.56074074074</v>
+        <v>44322</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1443,8 +1443,13 @@
           <t>MÖLNDAL</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1481,14 +1486,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 21842-2021</t>
+          <t>A 51537-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44322</v>
+        <v>44462</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1500,13 +1505,8 @@
           <t>MÖLNDAL</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>0.4</v>
+        <v>7.2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1543,14 +1543,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 51537-2021</t>
+          <t>A 26650-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44462</v>
+        <v>44739.6103125</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>7.2</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1600,14 +1600,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 26650-2022</t>
+          <t>A 6258-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44739.6103125</v>
+        <v>45337.77947916667</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1657,14 +1657,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 56133-2023</t>
+          <t>A 3673-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45240</v>
+        <v>44586.54415509259</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>5.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1714,14 +1714,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 38-2022</t>
+          <t>A 11256-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44564.37274305556</v>
+        <v>45371.66233796296</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1771,14 +1771,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 12977-2025</t>
+          <t>A 38-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45734.45465277778</v>
+        <v>44564.37274305556</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1828,14 +1828,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 61167-2024</t>
+          <t>A 24771-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45645</v>
+        <v>45084.64277777778</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1885,14 +1885,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 11261-2024</t>
+          <t>A 43067-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45371.67425925926</v>
+        <v>45567.47446759259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1942,14 +1942,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 19295-2025</t>
+          <t>A 21536-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45769.56212962963</v>
+        <v>45441.59925925926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1999,14 +1999,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 21477-2025</t>
+          <t>A 8639-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45782.59390046296</v>
+        <v>44977.95614583333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2056,14 +2056,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 22033-2025</t>
+          <t>A 60809-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45785.29449074074</v>
+        <v>45644.61414351852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5.2</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2113,14 +2113,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 21536-2024</t>
+          <t>A 56133-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45441.59925925926</v>
+        <v>45240</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2170,14 +2170,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 44926-2025</t>
+          <t>A 19295-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45918.55856481481</v>
+        <v>45769.56212962963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2227,14 +2227,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 43067-2024</t>
+          <t>A 88-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45567.47446759259</v>
+        <v>45659.46386574074</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2284,14 +2284,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 12273-2024</t>
+          <t>A 6042-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45378.47817129629</v>
+        <v>45336</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>45127.42379629629</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2398,14 +2398,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 6042-2024</t>
+          <t>A 37570-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45336</v>
+        <v>45880.37358796296</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2455,14 +2455,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 37570-2025</t>
+          <t>A 12273-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45880.37358796296</v>
+        <v>45378.47817129629</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2512,14 +2512,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 22953-2023</t>
+          <t>A 3811-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45072</v>
+        <v>45321.673125</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2569,14 +2569,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 62804-2023</t>
+          <t>A 11261-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45271</v>
+        <v>45371.67425925926</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2626,14 +2626,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 31321-2025</t>
+          <t>A 3676-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45833</v>
+        <v>44586</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>6.4</v>
+        <v>0.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2683,14 +2683,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 48265-2025</t>
+          <t>A 12977-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45933</v>
+        <v>45734.45465277778</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2740,14 +2740,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 3811-2024</t>
+          <t>A 61167-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45321.673125</v>
+        <v>45645</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2797,14 +2797,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 3676-2022</t>
+          <t>A 62804-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44586</v>
+        <v>45271</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2854,14 +2854,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 6258-2024</t>
+          <t>A 22953-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45337.77947916667</v>
+        <v>45072</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2911,14 +2911,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 46379-2025</t>
+          <t>A 44926-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45925</v>
+        <v>45918.55856481481</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>7.1</v>
+        <v>3.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2968,14 +2968,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 88-2025</t>
+          <t>A 21477-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45659.46386574074</v>
+        <v>45782.59390046296</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3025,14 +3025,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 8639-2023</t>
+          <t>A 22033-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44977.95614583333</v>
+        <v>45785.29449074074</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.8</v>
+        <v>5.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3082,14 +3082,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 62768-2025</t>
+          <t>A 31321-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>46008.59856481481</v>
+        <v>45833</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3139,14 +3139,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 61178-2024</t>
+          <t>A 48265-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45645</v>
+        <v>45933</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>6.6</v>
+        <v>2.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3196,14 +3196,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 46384-2025</t>
+          <t>A 46379-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
         <v>45925</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.1</v>
+        <v>7.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3253,14 +3253,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 60809-2024</t>
+          <t>A 62768-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45644.61414351852</v>
+        <v>46008.59856481481</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.5</v>
+        <v>4.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3310,14 +3310,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 11256-2024</t>
+          <t>A 61178-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45371.66233796296</v>
+        <v>45645</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.6</v>
+        <v>6.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3367,14 +3367,14 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 24771-2023</t>
+          <t>A 46384-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45084.64277777778</v>
+        <v>45925</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>

--- a/Översikt MÖLNDAL.xlsx
+++ b/Översikt MÖLNDAL.xlsx
@@ -575,7 +575,7 @@
         <v>44322</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44551</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44586.54900462963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,14 +833,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 2842-2025</t>
+          <t>A 49789-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45677</v>
+        <v>45212</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -853,13 +853,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -887,49 +887,45 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Trubbfjädermossa</t>
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 2842-2025 artfynd.xlsx", "A 2842-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 49789-2023 artfynd.xlsx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 2842-2025 karta.png", "A 2842-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 49789-2023 karta.png", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 2842-2025 FSC-klagomål.docx", "A 2842-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 49789-2023 FSC-klagomål.docx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 2842-2025 FSC-klagomål mail.docx", "A 2842-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 49789-2023 FSC-klagomål mail.docx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 2842-2025 tillsynsbegäran.docx", "A 2842-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 49789-2023 tillsynsbegäran.docx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 2842-2025 tillsynsbegäran mail.docx", "A 2842-2025")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/fåglar/A 2842-2025 prioriterade fågelarter.docx", "A 2842-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 49789-2023 tillsynsbegäran mail.docx", "A 49789-2023")</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 34574-2025</t>
+          <t>A 393-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45847.59914351852</v>
+        <v>45663</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -942,7 +938,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>7.4</v>
+        <v>5.1</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -951,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -966,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -976,45 +972,49 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 34574-2025 artfynd.xlsx", "A 34574-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 393-2025 artfynd.xlsx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 34574-2025 karta.png", "A 34574-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 393-2025 karta.png", "A 393-2025")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 34574-2025 FSC-klagomål.docx", "A 34574-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 393-2025 FSC-klagomål.docx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 34574-2025 FSC-klagomål mail.docx", "A 34574-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 393-2025 FSC-klagomål mail.docx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 34574-2025 tillsynsbegäran.docx", "A 34574-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 393-2025 tillsynsbegäran.docx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 34574-2025 tillsynsbegäran mail.docx", "A 34574-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 393-2025 tillsynsbegäran mail.docx", "A 393-2025")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/fåglar/A 393-2025 prioriterade fågelarter.docx", "A 393-2025")</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 393-2025</t>
+          <t>A 2842-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45663</v>
+        <v>45677</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5.1</v>
+        <v>2.7</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1061,49 +1061,49 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 393-2025 artfynd.xlsx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 2842-2025 artfynd.xlsx", "A 2842-2025")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 393-2025 karta.png", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 2842-2025 karta.png", "A 2842-2025")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 393-2025 FSC-klagomål.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 2842-2025 FSC-klagomål.docx", "A 2842-2025")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 393-2025 FSC-klagomål mail.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 2842-2025 FSC-klagomål mail.docx", "A 2842-2025")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 393-2025 tillsynsbegäran.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 2842-2025 tillsynsbegäran.docx", "A 2842-2025")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 393-2025 tillsynsbegäran mail.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 2842-2025 tillsynsbegäran mail.docx", "A 2842-2025")</f>
         <v/>
       </c>
       <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/fåglar/A 393-2025 prioriterade fågelarter.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/fåglar/A 2842-2025 prioriterade fågelarter.docx", "A 2842-2025")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 49789-2023</t>
+          <t>A 34574-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45212</v>
+        <v>45847.59914351852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1116,13 +1116,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.8</v>
+        <v>7.4</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1150,31 +1150,31 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Trubbfjädermossa</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 49789-2023 artfynd.xlsx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 34574-2025 artfynd.xlsx", "A 34574-2025")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 49789-2023 karta.png", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 34574-2025 karta.png", "A 34574-2025")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 49789-2023 FSC-klagomål.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 34574-2025 FSC-klagomål.docx", "A 34574-2025")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 49789-2023 FSC-klagomål mail.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 34574-2025 FSC-klagomål mail.docx", "A 34574-2025")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 49789-2023 tillsynsbegäran.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 34574-2025 tillsynsbegäran.docx", "A 34574-2025")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 49789-2023 tillsynsbegäran mail.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 34574-2025 tillsynsbegäran mail.docx", "A 34574-2025")</f>
         <v/>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
         <v>44516.6296875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44831</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1367,14 +1367,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 23877-2022</t>
+          <t>A 3673-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44722.56074074074</v>
+        <v>44586.54415509259</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.5</v>
+        <v>5.6</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1424,14 +1424,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 21842-2021</t>
+          <t>A 23877-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44322</v>
+        <v>44722.56074074074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1443,13 +1443,8 @@
           <t>MÖLNDAL</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1486,14 +1481,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 51537-2021</t>
+          <t>A 21842-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44462</v>
+        <v>44322</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1505,8 +1500,13 @@
           <t>MÖLNDAL</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>7.2</v>
+        <v>0.4</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1543,14 +1543,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 26650-2022</t>
+          <t>A 51537-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44739.6103125</v>
+        <v>44462</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>7.2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1600,14 +1600,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 6258-2024</t>
+          <t>A 26650-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45337.77947916667</v>
+        <v>44739.6103125</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1657,14 +1657,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 3673-2022</t>
+          <t>A 38-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44586.54415509259</v>
+        <v>44564.37274305556</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5.6</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1714,14 +1714,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 11256-2024</t>
+          <t>A 46384-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45371.66233796296</v>
+        <v>45925</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1771,14 +1771,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 38-2022</t>
+          <t>A 12977-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44564.37274305556</v>
+        <v>45734.45465277778</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1828,14 +1828,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 24771-2023</t>
+          <t>A 21536-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45084.64277777778</v>
+        <v>45441.59925925926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1885,14 +1885,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 43067-2024</t>
+          <t>A 61167-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45567.47446759259</v>
+        <v>45645</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1942,14 +1942,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 21536-2024</t>
+          <t>A 43067-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45441.59925925926</v>
+        <v>45567.47446759259</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1999,14 +1999,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 8639-2023</t>
+          <t>A 12273-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44977.95614583333</v>
+        <v>45378.47817129629</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2056,14 +2056,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 60809-2024</t>
+          <t>A 33201-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45644.61414351852</v>
+        <v>45127.42379629629</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2113,14 +2113,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 56133-2023</t>
+          <t>A 6042-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45240</v>
+        <v>45336</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2170,14 +2170,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 19295-2025</t>
+          <t>A 37570-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45769.56212962963</v>
+        <v>45880.37358796296</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2227,14 +2227,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 88-2025</t>
+          <t>A 44926-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45659.46386574074</v>
+        <v>45918.55856481481</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2284,14 +2284,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 6042-2024</t>
+          <t>A 22953-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45336</v>
+        <v>45072</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2341,14 +2341,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 33201-2023</t>
+          <t>A 62804-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45127.42379629629</v>
+        <v>45271</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2398,14 +2398,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 37570-2025</t>
+          <t>A 3811-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45880.37358796296</v>
+        <v>45321.673125</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2455,14 +2455,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 12273-2024</t>
+          <t>A 3676-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45378.47817129629</v>
+        <v>44586</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2512,14 +2512,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 3811-2024</t>
+          <t>A 6258-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45321.673125</v>
+        <v>45337.77947916667</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2569,14 +2569,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 11261-2024</t>
+          <t>A 31321-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45371.67425925926</v>
+        <v>45833</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.7</v>
+        <v>6.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2626,14 +2626,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 3676-2022</t>
+          <t>A 48265-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44586</v>
+        <v>45933</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2683,14 +2683,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 12977-2025</t>
+          <t>A 88-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45734.45465277778</v>
+        <v>45659.46386574074</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2740,14 +2740,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 61167-2024</t>
+          <t>A 8639-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45645</v>
+        <v>44977.95614583333</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2797,14 +2797,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 62804-2023</t>
+          <t>A 46379-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45271</v>
+        <v>45925</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.6</v>
+        <v>7.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2854,14 +2854,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 22953-2023</t>
+          <t>A 60809-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45072</v>
+        <v>45644.61414351852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2911,14 +2911,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 44926-2025</t>
+          <t>A 62768-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45918.55856481481</v>
+        <v>46008.59856481481</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2968,14 +2968,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 21477-2025</t>
+          <t>A 61178-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45782.59390046296</v>
+        <v>45645</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.9</v>
+        <v>6.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3025,14 +3025,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 22033-2025</t>
+          <t>A 11256-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45785.29449074074</v>
+        <v>45371.66233796296</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>5.2</v>
+        <v>0.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3082,14 +3082,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 31321-2025</t>
+          <t>A 24771-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45833</v>
+        <v>45084.64277777778</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>6.4</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3139,14 +3139,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 48265-2025</t>
+          <t>A 56133-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45933</v>
+        <v>45240</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3196,14 +3196,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 46379-2025</t>
+          <t>A 11261-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45925</v>
+        <v>45371.67425925926</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>7.1</v>
+        <v>2.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3253,14 +3253,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 62768-2025</t>
+          <t>A 19295-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>46008.59856481481</v>
+        <v>45769.56212962963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3310,14 +3310,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 61178-2024</t>
+          <t>A 21477-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45645</v>
+        <v>45782.59390046296</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>6.6</v>
+        <v>2.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3367,14 +3367,14 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 46384-2025</t>
+          <t>A 22033-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45925</v>
+        <v>45785.29449074074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.1</v>
+        <v>5.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>

--- a/Översikt MÖLNDAL.xlsx
+++ b/Översikt MÖLNDAL.xlsx
@@ -575,7 +575,7 @@
         <v>44322</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44551</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44586.54900462963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,14 +833,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 49789-2023</t>
+          <t>A 393-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45212</v>
+        <v>45663</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -853,17 +853,17 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>1</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -887,45 +887,49 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>Trubbfjädermossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 49789-2023 artfynd.xlsx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 393-2025 artfynd.xlsx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 49789-2023 karta.png", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 393-2025 karta.png", "A 393-2025")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 49789-2023 FSC-klagomål.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 393-2025 FSC-klagomål.docx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 49789-2023 FSC-klagomål mail.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 393-2025 FSC-klagomål mail.docx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 49789-2023 tillsynsbegäran.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 393-2025 tillsynsbegäran.docx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 49789-2023 tillsynsbegäran mail.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 393-2025 tillsynsbegäran mail.docx", "A 393-2025")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/fåglar/A 393-2025 prioriterade fågelarter.docx", "A 393-2025")</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 393-2025</t>
+          <t>A 49789-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45663</v>
+        <v>45212</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -938,16 +942,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -962,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -972,35 +976,31 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Trubbfjädermossa</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 393-2025 artfynd.xlsx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 49789-2023 artfynd.xlsx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 393-2025 karta.png", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 49789-2023 karta.png", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 393-2025 FSC-klagomål.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 49789-2023 FSC-klagomål.docx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 393-2025 FSC-klagomål mail.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 49789-2023 FSC-klagomål mail.docx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 393-2025 tillsynsbegäran.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 49789-2023 tillsynsbegäran.docx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 393-2025 tillsynsbegäran mail.docx", "A 393-2025")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/fåglar/A 393-2025 prioriterade fågelarter.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 49789-2023 tillsynsbegäran mail.docx", "A 49789-2023")</f>
         <v/>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
         <v>45677</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>45847.59914351852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44516.6296875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44831</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44586.54415509259</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44722.56074074074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44322</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44462</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>44739.6103125</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>44564.37274305556</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1714,14 +1714,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 46384-2025</t>
+          <t>A 12977-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45925</v>
+        <v>45734.45465277778</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1771,14 +1771,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 12977-2025</t>
+          <t>A 61167-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45734.45465277778</v>
+        <v>45645</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>45441.59925925926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1885,14 +1885,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 61167-2024</t>
+          <t>A 43067-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45645</v>
+        <v>45567.47446759259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1942,14 +1942,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 43067-2024</t>
+          <t>A 62768-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45567.47446759259</v>
+        <v>46008.59856481481</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>45378.47817129629</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2056,14 +2056,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 33201-2023</t>
+          <t>A 44926-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45127.42379629629</v>
+        <v>45918.55856481481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2113,14 +2113,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 6042-2024</t>
+          <t>A 33201-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45336</v>
+        <v>45127.42379629629</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2170,14 +2170,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 37570-2025</t>
+          <t>A 6042-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45880.37358796296</v>
+        <v>45336</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2227,14 +2227,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 44926-2025</t>
+          <t>A 37570-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45918.55856481481</v>
+        <v>45880.37358796296</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2284,14 +2284,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 22953-2023</t>
+          <t>A 61178-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45072</v>
+        <v>45645</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.9</v>
+        <v>6.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2341,14 +2341,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 62804-2023</t>
+          <t>A 46384-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45271</v>
+        <v>45925</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2398,14 +2398,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 3811-2024</t>
+          <t>A 31321-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45321.673125</v>
+        <v>45833</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.9</v>
+        <v>6.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2455,14 +2455,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 3676-2022</t>
+          <t>A 48265-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44586</v>
+        <v>45933</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2512,14 +2512,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 6258-2024</t>
+          <t>A 22953-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45337.77947916667</v>
+        <v>45072</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2569,14 +2569,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 31321-2025</t>
+          <t>A 46379-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45833</v>
+        <v>45925</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2626,14 +2626,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 48265-2025</t>
+          <t>A 62804-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45933</v>
+        <v>45271</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2683,14 +2683,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 88-2025</t>
+          <t>A 3811-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45659.46386574074</v>
+        <v>45321.673125</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2740,14 +2740,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 8639-2023</t>
+          <t>A 3676-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44977.95614583333</v>
+        <v>44586</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2797,14 +2797,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 46379-2025</t>
+          <t>A 6258-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45925</v>
+        <v>45337.77947916667</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>7.1</v>
+        <v>1.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2854,14 +2854,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 60809-2024</t>
+          <t>A 88-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45644.61414351852</v>
+        <v>45659.46386574074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2911,14 +2911,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 62768-2025</t>
+          <t>A 8639-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>46008.59856481481</v>
+        <v>44977.95614583333</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2968,14 +2968,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 61178-2024</t>
+          <t>A 60809-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45645</v>
+        <v>45644.61414351852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>6.6</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3032,7 +3032,7 @@
         <v>45371.66233796296</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>45084.64277777778</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>45240</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>45371.67425925926</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>45769.56212962963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>45782.59390046296</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>45785.29449074074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>

--- a/Översikt MÖLNDAL.xlsx
+++ b/Översikt MÖLNDAL.xlsx
@@ -575,7 +575,7 @@
         <v>44322</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44551</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44586.54900462963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>45663</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45212</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>45677</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>45847.59914351852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44516.6296875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44831</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44586.54415509259</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44722.56074074074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44322</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44462</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>44739.6103125</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>44564.37274305556</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1714,14 +1714,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 12977-2025</t>
+          <t>A 22033-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45734.45465277778</v>
+        <v>45785.29449074074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.1</v>
+        <v>5.2</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1771,14 +1771,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 61167-2024</t>
+          <t>A 31321-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45645</v>
+        <v>45833</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>6.4</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1828,14 +1828,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 21536-2024</t>
+          <t>A 48265-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45441.59925925926</v>
+        <v>45933</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1885,14 +1885,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 43067-2024</t>
+          <t>A 12977-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45567.47446759259</v>
+        <v>45734.45465277778</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1942,14 +1942,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 62768-2025</t>
+          <t>A 61167-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>46008.59856481481</v>
+        <v>45645</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1999,14 +1999,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 12273-2024</t>
+          <t>A 21536-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45378.47817129629</v>
+        <v>45441.59925925926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2063,7 +2063,7 @@
         <v>45918.55856481481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2113,14 +2113,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 33201-2023</t>
+          <t>A 43067-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45127.42379629629</v>
+        <v>45567.47446759259</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2170,14 +2170,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 6042-2024</t>
+          <t>A 12273-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45336</v>
+        <v>45378.47817129629</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2227,14 +2227,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 37570-2025</t>
+          <t>A 33201-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45880.37358796296</v>
+        <v>45127.42379629629</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2284,14 +2284,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 61178-2024</t>
+          <t>A 6042-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45645</v>
+        <v>45336</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>6.6</v>
+        <v>1.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2341,14 +2341,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 46384-2025</t>
+          <t>A 37570-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45925</v>
+        <v>45880.37358796296</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2398,14 +2398,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 31321-2025</t>
+          <t>A 22953-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45833</v>
+        <v>45072</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>6.4</v>
+        <v>1.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2455,14 +2455,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 48265-2025</t>
+          <t>A 62804-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45933</v>
+        <v>45271</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2512,14 +2512,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 22953-2023</t>
+          <t>A 62768-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45072</v>
+        <v>46008.59856481481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2569,14 +2569,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 46379-2025</t>
+          <t>A 3811-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45925</v>
+        <v>45321.673125</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>7.1</v>
+        <v>0.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2626,14 +2626,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 62804-2023</t>
+          <t>A 61178-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45271</v>
+        <v>45645</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.6</v>
+        <v>6.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2683,14 +2683,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 3811-2024</t>
+          <t>A 46384-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45321.673125</v>
+        <v>45925</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2747,7 +2747,7 @@
         <v>44586</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>45337.77947916667</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2854,14 +2854,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 88-2025</t>
+          <t>A 46379-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45659.46386574074</v>
+        <v>45925</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.4</v>
+        <v>7.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2911,14 +2911,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 8639-2023</t>
+          <t>A 88-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44977.95614583333</v>
+        <v>45659.46386574074</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2968,14 +2968,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 60809-2024</t>
+          <t>A 8639-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45644.61414351852</v>
+        <v>44977.95614583333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3025,14 +3025,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 11256-2024</t>
+          <t>A 60809-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45371.66233796296</v>
+        <v>45644.61414351852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3082,14 +3082,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 24771-2023</t>
+          <t>A 11256-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45084.64277777778</v>
+        <v>45371.66233796296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3139,14 +3139,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 56133-2023</t>
+          <t>A 24771-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45240</v>
+        <v>45084.64277777778</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3196,14 +3196,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 11261-2024</t>
+          <t>A 56133-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45371.67425925926</v>
+        <v>45240</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3253,14 +3253,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 19295-2025</t>
+          <t>A 11261-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45769.56212962963</v>
+        <v>45371.67425925926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3310,14 +3310,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 21477-2025</t>
+          <t>A 19295-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45782.59390046296</v>
+        <v>45769.56212962963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3367,14 +3367,14 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 22033-2025</t>
+          <t>A 21477-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45785.29449074074</v>
+        <v>45782.59390046296</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5.2</v>
+        <v>2.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>

--- a/Översikt MÖLNDAL.xlsx
+++ b/Översikt MÖLNDAL.xlsx
@@ -575,7 +575,7 @@
         <v>44322</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44551</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44586.54900462963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,14 +833,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 393-2025</t>
+          <t>A 49789-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45663</v>
+        <v>45212</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -853,16 +853,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -887,49 +887,45 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Trubbfjädermossa</t>
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 393-2025 artfynd.xlsx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 49789-2023 artfynd.xlsx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 393-2025 karta.png", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 49789-2023 karta.png", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 393-2025 FSC-klagomål.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 49789-2023 FSC-klagomål.docx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 393-2025 FSC-klagomål mail.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 49789-2023 FSC-klagomål mail.docx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 393-2025 tillsynsbegäran.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 49789-2023 tillsynsbegäran.docx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 393-2025 tillsynsbegäran mail.docx", "A 393-2025")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/fåglar/A 393-2025 prioriterade fågelarter.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 49789-2023 tillsynsbegäran mail.docx", "A 49789-2023")</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 49789-2023</t>
+          <t>A 393-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45212</v>
+        <v>45663</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -942,17 +938,17 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
@@ -966,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -976,31 +972,35 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Trubbfjädermossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 49789-2023 artfynd.xlsx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 393-2025 artfynd.xlsx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 49789-2023 karta.png", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 393-2025 karta.png", "A 393-2025")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 49789-2023 FSC-klagomål.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 393-2025 FSC-klagomål.docx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 49789-2023 FSC-klagomål mail.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 393-2025 FSC-klagomål mail.docx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 49789-2023 tillsynsbegäran.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 393-2025 tillsynsbegäran.docx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 49789-2023 tillsynsbegäran mail.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 393-2025 tillsynsbegäran mail.docx", "A 393-2025")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/fåglar/A 393-2025 prioriterade fågelarter.docx", "A 393-2025")</f>
         <v/>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
         <v>45677</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>45847.59914351852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44516.6296875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44831</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44586.54415509259</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44722.56074074074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44322</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44462</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>44739.6103125</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1657,14 +1657,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 38-2022</t>
+          <t>A 6258-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44564.37274305556</v>
+        <v>45337.77947916667</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1714,14 +1714,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 22033-2025</t>
+          <t>A 11256-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45785.29449074074</v>
+        <v>45371.66233796296</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.2</v>
+        <v>0.6</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1771,14 +1771,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 31321-2025</t>
+          <t>A 38-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45833</v>
+        <v>44564.37274305556</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>6.4</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1828,14 +1828,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 48265-2025</t>
+          <t>A 21477-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45933</v>
+        <v>45782.59390046296</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>45734.45465277778</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1942,14 +1942,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 61167-2024</t>
+          <t>A 22033-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45645</v>
+        <v>45785.29449074074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>5.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1999,14 +1999,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 21536-2024</t>
+          <t>A 61167-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45441.59925925926</v>
+        <v>45645</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2063,7 +2063,7 @@
         <v>45918.55856481481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2113,14 +2113,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 43067-2024</t>
+          <t>A 31321-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45567.47446759259</v>
+        <v>45833</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.1</v>
+        <v>6.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2170,14 +2170,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 12273-2024</t>
+          <t>A 48265-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45378.47817129629</v>
+        <v>45933</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2227,14 +2227,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 33201-2023</t>
+          <t>A 8639-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45127.42379629629</v>
+        <v>44977.95614583333</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>45336</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2341,14 +2341,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 37570-2025</t>
+          <t>A 60809-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45880.37358796296</v>
+        <v>45644.61414351852</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2398,14 +2398,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 22953-2023</t>
+          <t>A 33201-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45072</v>
+        <v>45127.42379629629</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2455,14 +2455,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 62804-2023</t>
+          <t>A 37570-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45271</v>
+        <v>45880.37358796296</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2512,14 +2512,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 62768-2025</t>
+          <t>A 88-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>46008.59856481481</v>
+        <v>45659.46386574074</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2569,14 +2569,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 3811-2024</t>
+          <t>A 62768-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45321.673125</v>
+        <v>46008.59856481481</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.9</v>
+        <v>4.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>45645</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>45925</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2740,14 +2740,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 3676-2022</t>
+          <t>A 46379-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44586</v>
+        <v>45925</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.5</v>
+        <v>7.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2797,14 +2797,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 6258-2024</t>
+          <t>A 43067-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45337.77947916667</v>
+        <v>45567.47446759259</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2854,14 +2854,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 46379-2025</t>
+          <t>A 21536-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45925</v>
+        <v>45441.59925925926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>7.1</v>
+        <v>2.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2911,14 +2911,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 88-2025</t>
+          <t>A 56133-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45659.46386574074</v>
+        <v>45240</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2968,14 +2968,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 8639-2023</t>
+          <t>A 19295-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44977.95614583333</v>
+        <v>45769.56212962963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3025,14 +3025,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 60809-2024</t>
+          <t>A 12273-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45644.61414351852</v>
+        <v>45378.47817129629</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3082,14 +3082,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 11256-2024</t>
+          <t>A 3811-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45371.66233796296</v>
+        <v>45321.673125</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3139,14 +3139,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 24771-2023</t>
+          <t>A 11261-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45084.64277777778</v>
+        <v>45371.67425925926</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3196,14 +3196,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 56133-2023</t>
+          <t>A 3676-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45240</v>
+        <v>44586</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3253,14 +3253,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 11261-2024</t>
+          <t>A 24771-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45371.67425925926</v>
+        <v>45084.64277777778</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3310,14 +3310,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 19295-2025</t>
+          <t>A 62804-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45769.56212962963</v>
+        <v>45271</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3367,14 +3367,14 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 21477-2025</t>
+          <t>A 22953-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45782.59390046296</v>
+        <v>45072</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>

--- a/Översikt MÖLNDAL.xlsx
+++ b/Översikt MÖLNDAL.xlsx
@@ -575,7 +575,7 @@
         <v>44322</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44551</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44586.54900462963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>45212</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>45663</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>45677</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>45847.59914351852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44516.6296875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44831</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44586.54415509259</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44722.56074074074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44322</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44462</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>44739.6103125</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1657,14 +1657,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 6258-2024</t>
+          <t>A 38-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45337.77947916667</v>
+        <v>44564.37274305556</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1714,14 +1714,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 11256-2024</t>
+          <t>A 21536-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45371.66233796296</v>
+        <v>45441.59925925926</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1771,14 +1771,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 38-2022</t>
+          <t>A 43067-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44564.37274305556</v>
+        <v>45567.47446759259</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1828,14 +1828,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 21477-2025</t>
+          <t>A 12273-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45782.59390046296</v>
+        <v>45378.47817129629</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>45734.45465277778</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1942,14 +1942,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 22033-2025</t>
+          <t>A 61167-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45785.29449074074</v>
+        <v>45645</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5.2</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1999,14 +1999,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 61167-2024</t>
+          <t>A 44926-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45645</v>
+        <v>45918.55856481481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2056,14 +2056,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 44926-2025</t>
+          <t>A 33201-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45918.55856481481</v>
+        <v>45127.42379629629</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2113,14 +2113,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 31321-2025</t>
+          <t>A 6042-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45833</v>
+        <v>45336</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>6.4</v>
+        <v>1.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2170,14 +2170,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 48265-2025</t>
+          <t>A 37570-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45933</v>
+        <v>45880.37358796296</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2227,14 +2227,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 8639-2023</t>
+          <t>A 22953-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44977.95614583333</v>
+        <v>45072</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2284,14 +2284,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 6042-2024</t>
+          <t>A 62804-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45336</v>
+        <v>45271</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2341,14 +2341,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 60809-2024</t>
+          <t>A 31321-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45644.61414351852</v>
+        <v>45833</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.5</v>
+        <v>6.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2398,14 +2398,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 33201-2023</t>
+          <t>A 48265-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45127.42379629629</v>
+        <v>45933</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2455,14 +2455,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 37570-2025</t>
+          <t>A 3811-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45880.37358796296</v>
+        <v>45321.673125</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2512,14 +2512,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 88-2025</t>
+          <t>A 3676-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45659.46386574074</v>
+        <v>44586</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2569,14 +2569,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 62768-2025</t>
+          <t>A 6258-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>46008.59856481481</v>
+        <v>45337.77947916667</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2626,14 +2626,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 61178-2024</t>
+          <t>A 88-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45645</v>
+        <v>45659.46386574074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>6.6</v>
+        <v>1.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2683,14 +2683,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 46384-2025</t>
+          <t>A 8639-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45925</v>
+        <v>44977.95614583333</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2740,14 +2740,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 46379-2025</t>
+          <t>A 62768-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45925</v>
+        <v>46008.59856481481</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>7.1</v>
+        <v>4.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2797,14 +2797,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 43067-2024</t>
+          <t>A 61178-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45567.47446759259</v>
+        <v>45645</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.1</v>
+        <v>6.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2854,14 +2854,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 21536-2024</t>
+          <t>A 60809-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45441.59925925926</v>
+        <v>45644.61414351852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2911,14 +2911,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 56133-2023</t>
+          <t>A 46379-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45240</v>
+        <v>45925</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>7.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2968,14 +2968,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 19295-2025</t>
+          <t>A 46384-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45769.56212962963</v>
+        <v>45925</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3025,14 +3025,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 12273-2024</t>
+          <t>A 11256-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45378.47817129629</v>
+        <v>45371.66233796296</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3082,14 +3082,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 3811-2024</t>
+          <t>A 24771-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45321.673125</v>
+        <v>45084.64277777778</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3139,14 +3139,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 11261-2024</t>
+          <t>A 56133-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45371.67425925926</v>
+        <v>45240</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3196,14 +3196,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 3676-2022</t>
+          <t>A 11261-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44586</v>
+        <v>45371.67425925926</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3253,14 +3253,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 24771-2023</t>
+          <t>A 19295-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45084.64277777778</v>
+        <v>45769.56212962963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3310,14 +3310,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 62804-2023</t>
+          <t>A 21477-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45271</v>
+        <v>45782.59390046296</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3367,14 +3367,14 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 22953-2023</t>
+          <t>A 22033-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45072</v>
+        <v>45785.29449074074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.9</v>
+        <v>5.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>

--- a/Översikt MÖLNDAL.xlsx
+++ b/Översikt MÖLNDAL.xlsx
@@ -575,7 +575,7 @@
         <v>44322</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44551</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44586.54900462963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>45212</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>45663</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>45677</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>45847.59914351852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44516.6296875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44831</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44586.54415509259</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44722.56074074074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44322</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44462</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>44739.6103125</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>44564.37274305556</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>45441.59925925926</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>45567.47446759259</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>45378.47817129629</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>45734.45465277778</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>45645</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>45918.55856481481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>45127.42379629629</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>45336</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>45880.37358796296</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>45072</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>45271</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>45833</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>45933</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>45321.673125</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>44586</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>45337.77947916667</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>45659.46386574074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>44977.95614583333</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>46008.59856481481</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>45645</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>45644.61414351852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>45925</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>45925</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>45371.66233796296</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>45084.64277777778</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>45240</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>45371.67425925926</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>45769.56212962963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>45782.59390046296</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>45785.29449074074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>

--- a/Översikt MÖLNDAL.xlsx
+++ b/Översikt MÖLNDAL.xlsx
@@ -575,7 +575,7 @@
         <v>44322</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44551</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44586.54900462963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>45212</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>45663</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>45677</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>45847.59914351852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44516.6296875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44831</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44586.54415509259</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44722.56074074074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44322</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44462</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>44739.6103125</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>44564.37274305556</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>45441.59925925926</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>45567.47446759259</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>45378.47817129629</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>45734.45465277778</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>45645</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>45918.55856481481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>45127.42379629629</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>45336</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>45880.37358796296</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>45072</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>45271</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>45833</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>45933</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>45321.673125</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>44586</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>45337.77947916667</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>45659.46386574074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>44977.95614583333</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>46008.59856481481</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>45645</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>45644.61414351852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>45925</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>45925</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>45371.66233796296</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>45084.64277777778</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>45240</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>45371.67425925926</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>45769.56212962963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>45782.59390046296</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>45785.29449074074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>

--- a/Översikt MÖLNDAL.xlsx
+++ b/Översikt MÖLNDAL.xlsx
@@ -575,7 +575,7 @@
         <v>44322</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44551</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44586.54900462963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,14 +833,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 49789-2023</t>
+          <t>A 393-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45212</v>
+        <v>45663</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -853,17 +853,17 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>1</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -887,45 +887,49 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>Trubbfjädermossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 49789-2023 artfynd.xlsx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 393-2025 artfynd.xlsx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 49789-2023 karta.png", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 393-2025 karta.png", "A 393-2025")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 49789-2023 FSC-klagomål.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 393-2025 FSC-klagomål.docx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 49789-2023 FSC-klagomål mail.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 393-2025 FSC-klagomål mail.docx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 49789-2023 tillsynsbegäran.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 393-2025 tillsynsbegäran.docx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 49789-2023 tillsynsbegäran mail.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 393-2025 tillsynsbegäran mail.docx", "A 393-2025")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/fåglar/A 393-2025 prioriterade fågelarter.docx", "A 393-2025")</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 393-2025</t>
+          <t>A 49789-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45663</v>
+        <v>45212</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -938,16 +942,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -962,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -972,35 +976,31 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Trubbfjädermossa</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 393-2025 artfynd.xlsx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 49789-2023 artfynd.xlsx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 393-2025 karta.png", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 49789-2023 karta.png", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 393-2025 FSC-klagomål.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 49789-2023 FSC-klagomål.docx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 393-2025 FSC-klagomål mail.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 49789-2023 FSC-klagomål mail.docx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 393-2025 tillsynsbegäran.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 49789-2023 tillsynsbegäran.docx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 393-2025 tillsynsbegäran mail.docx", "A 393-2025")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/fåglar/A 393-2025 prioriterade fågelarter.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 49789-2023 tillsynsbegäran mail.docx", "A 49789-2023")</f>
         <v/>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
         <v>45677</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>45847.59914351852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44516.6296875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44831</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44586.54415509259</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44722.56074074074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44322</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44462</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>44739.6103125</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1657,14 +1657,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 38-2022</t>
+          <t>A 8639-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44564.37274305556</v>
+        <v>44977.95614583333</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1714,14 +1714,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 21536-2024</t>
+          <t>A 6258-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45441.59925925926</v>
+        <v>45337.77947916667</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1771,14 +1771,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 43067-2024</t>
+          <t>A 60809-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45567.47446759259</v>
+        <v>45644.61414351852</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1828,14 +1828,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 12273-2024</t>
+          <t>A 11256-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45378.47817129629</v>
+        <v>45371.66233796296</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1885,14 +1885,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 12977-2025</t>
+          <t>A 38-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45734.45465277778</v>
+        <v>44564.37274305556</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1942,14 +1942,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 61167-2024</t>
+          <t>A 88-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45645</v>
+        <v>45659.46386574074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1999,14 +1999,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 44926-2025</t>
+          <t>A 43067-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45918.55856481481</v>
+        <v>45567.47446759259</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2056,14 +2056,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 33201-2023</t>
+          <t>A 21536-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45127.42379629629</v>
+        <v>45441.59925925926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2113,14 +2113,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 6042-2024</t>
+          <t>A 12273-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45336</v>
+        <v>45378.47817129629</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2170,14 +2170,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 37570-2025</t>
+          <t>A 3811-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45880.37358796296</v>
+        <v>45321.673125</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2227,14 +2227,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 22953-2023</t>
+          <t>A 56133-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45072</v>
+        <v>45240</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2284,14 +2284,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 62804-2023</t>
+          <t>A 12977-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45271</v>
+        <v>45734.45465277778</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2341,14 +2341,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 31321-2025</t>
+          <t>A 61167-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45833</v>
+        <v>45645</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>6.4</v>
+        <v>3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2398,14 +2398,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 48265-2025</t>
+          <t>A 11261-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45933</v>
+        <v>45371.67425925926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2455,14 +2455,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 3811-2024</t>
+          <t>A 19295-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45321.673125</v>
+        <v>45769.56212962963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2519,7 +2519,7 @@
         <v>44586</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2569,14 +2569,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 6258-2024</t>
+          <t>A 24771-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45337.77947916667</v>
+        <v>45084.64277777778</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2626,14 +2626,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 88-2025</t>
+          <t>A 44926-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45659.46386574074</v>
+        <v>45918.55856481481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2683,14 +2683,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 8639-2023</t>
+          <t>A 62804-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44977.95614583333</v>
+        <v>45271</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2740,14 +2740,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 62768-2025</t>
+          <t>A 22953-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>46008.59856481481</v>
+        <v>45072</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2797,14 +2797,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 61178-2024</t>
+          <t>A 31321-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45645</v>
+        <v>45833</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2854,14 +2854,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 60809-2024</t>
+          <t>A 48265-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45644.61414351852</v>
+        <v>45933</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2911,14 +2911,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 46379-2025</t>
+          <t>A 21477-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45925</v>
+        <v>45782.59390046296</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>7.1</v>
+        <v>2.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2968,14 +2968,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 46384-2025</t>
+          <t>A 22033-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45925</v>
+        <v>45785.29449074074</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.1</v>
+        <v>5.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3025,14 +3025,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 11256-2024</t>
+          <t>A 62768-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45371.66233796296</v>
+        <v>46008.59856481481</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3082,14 +3082,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 24771-2023</t>
+          <t>A 61178-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45084.64277777778</v>
+        <v>45645</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>6.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3139,14 +3139,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 56133-2023</t>
+          <t>A 46379-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45240</v>
+        <v>45925</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>7.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3196,14 +3196,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 11261-2024</t>
+          <t>A 46384-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45371.67425925926</v>
+        <v>45925</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3253,14 +3253,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 19295-2025</t>
+          <t>A 6042-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45769.56212962963</v>
+        <v>45336</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3310,14 +3310,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 21477-2025</t>
+          <t>A 33201-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45782.59390046296</v>
+        <v>45127.42379629629</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3367,14 +3367,14 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 22033-2025</t>
+          <t>A 37570-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45785.29449074074</v>
+        <v>45880.37358796296</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5.2</v>
+        <v>0.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>

--- a/Översikt MÖLNDAL.xlsx
+++ b/Översikt MÖLNDAL.xlsx
@@ -575,7 +575,7 @@
         <v>44322</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44551</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44586.54900462963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         <v>45663</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45212</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>45677</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>45847.59914351852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44516.6296875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44831</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44586.54415509259</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44722.56074074074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44322</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44462</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>44739.6103125</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1657,14 +1657,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 8639-2023</t>
+          <t>A 38-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44977.95614583333</v>
+        <v>44564.37274305556</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1714,14 +1714,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 6258-2024</t>
+          <t>A 21477-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45337.77947916667</v>
+        <v>45782.59390046296</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1771,14 +1771,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 60809-2024</t>
+          <t>A 12977-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45644.61414351852</v>
+        <v>45734.45465277778</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1828,14 +1828,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 11256-2024</t>
+          <t>A 22033-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45371.66233796296</v>
+        <v>45785.29449074074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.6</v>
+        <v>5.2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1885,14 +1885,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 38-2022</t>
+          <t>A 61167-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44564.37274305556</v>
+        <v>45645</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1942,14 +1942,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 88-2025</t>
+          <t>A 44926-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45659.46386574074</v>
+        <v>45918.55856481481</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1999,14 +1999,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 43067-2024</t>
+          <t>A 21536-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45567.47446759259</v>
+        <v>45441.59925925926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2056,14 +2056,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 21536-2024</t>
+          <t>A 43067-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45441.59925925926</v>
+        <v>45567.47446759259</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>45378.47817129629</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2170,14 +2170,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 3811-2024</t>
+          <t>A 33201-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45321.673125</v>
+        <v>45127.42379629629</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2227,14 +2227,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 56133-2023</t>
+          <t>A 6042-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45240</v>
+        <v>45336</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2284,14 +2284,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 12977-2025</t>
+          <t>A 37570-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45734.45465277778</v>
+        <v>45880.37358796296</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2341,14 +2341,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 61167-2024</t>
+          <t>A 22953-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45645</v>
+        <v>45072</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2398,14 +2398,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 11261-2024</t>
+          <t>A 62804-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45371.67425925926</v>
+        <v>45271</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2455,14 +2455,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 19295-2025</t>
+          <t>A 3811-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45769.56212962963</v>
+        <v>45321.673125</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2519,7 +2519,7 @@
         <v>44586</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2569,14 +2569,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 24771-2023</t>
+          <t>A 6258-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45084.64277777778</v>
+        <v>45337.77947916667</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2626,14 +2626,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 44926-2025</t>
+          <t>A 62768-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45918.55856481481</v>
+        <v>46008.59856481481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2683,14 +2683,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 62804-2023</t>
+          <t>A 88-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45271</v>
+        <v>45659.46386574074</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2740,14 +2740,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 22953-2023</t>
+          <t>A 8639-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45072</v>
+        <v>44977.95614583333</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2797,14 +2797,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 31321-2025</t>
+          <t>A 61178-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45833</v>
+        <v>45645</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2854,14 +2854,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 48265-2025</t>
+          <t>A 46379-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45933</v>
+        <v>45925</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.1</v>
+        <v>7.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2911,14 +2911,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 21477-2025</t>
+          <t>A 60809-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45782.59390046296</v>
+        <v>45644.61414351852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2968,14 +2968,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 22033-2025</t>
+          <t>A 46384-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45785.29449074074</v>
+        <v>45925</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>5.2</v>
+        <v>3.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3025,14 +3025,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 62768-2025</t>
+          <t>A 48265-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>46008.59856481481</v>
+        <v>45933</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3082,14 +3082,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 61178-2024</t>
+          <t>A 31321-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45645</v>
+        <v>45833</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3139,14 +3139,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 46379-2025</t>
+          <t>A 11256-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45925</v>
+        <v>45371.66233796296</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>7.1</v>
+        <v>0.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3196,14 +3196,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 46384-2025</t>
+          <t>A 24771-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45925</v>
+        <v>45084.64277777778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3253,14 +3253,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 6042-2024</t>
+          <t>A 56133-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45336</v>
+        <v>45240</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3310,14 +3310,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 33201-2023</t>
+          <t>A 11261-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45127.42379629629</v>
+        <v>45371.67425925926</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3367,14 +3367,14 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 37570-2025</t>
+          <t>A 19295-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45880.37358796296</v>
+        <v>45769.56212962963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>

--- a/Översikt MÖLNDAL.xlsx
+++ b/Översikt MÖLNDAL.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z47"/>
+  <dimension ref="A1:Z50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44322</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44551</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44586.54900462963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,14 +833,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 393-2025</t>
+          <t>A 49789-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45663</v>
+        <v>45212</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -853,16 +853,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -887,49 +887,45 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Trubbfjädermossa</t>
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 393-2025 artfynd.xlsx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 49789-2023 artfynd.xlsx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 393-2025 karta.png", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 49789-2023 karta.png", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 393-2025 FSC-klagomål.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 49789-2023 FSC-klagomål.docx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 393-2025 FSC-klagomål mail.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 49789-2023 FSC-klagomål mail.docx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 393-2025 tillsynsbegäran.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 49789-2023 tillsynsbegäran.docx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 393-2025 tillsynsbegäran mail.docx", "A 393-2025")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/fåglar/A 393-2025 prioriterade fågelarter.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 49789-2023 tillsynsbegäran mail.docx", "A 49789-2023")</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 49789-2023</t>
+          <t>A 393-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45212</v>
+        <v>45663</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -942,17 +938,17 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
@@ -966,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -976,31 +972,35 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Trubbfjädermossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 49789-2023 artfynd.xlsx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 393-2025 artfynd.xlsx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 49789-2023 karta.png", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 393-2025 karta.png", "A 393-2025")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 49789-2023 FSC-klagomål.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 393-2025 FSC-klagomål.docx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 49789-2023 FSC-klagomål mail.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 393-2025 FSC-klagomål mail.docx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 49789-2023 tillsynsbegäran.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 393-2025 tillsynsbegäran.docx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 49789-2023 tillsynsbegäran mail.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 393-2025 tillsynsbegäran mail.docx", "A 393-2025")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/fåglar/A 393-2025 prioriterade fågelarter.docx", "A 393-2025")</f>
         <v/>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
         <v>45677</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>45847.59914351852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44516.6296875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44831</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44586.54415509259</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44722.56074074074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44322</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44462</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>44739.6103125</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1657,14 +1657,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 38-2022</t>
+          <t>A 6258-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44564.37274305556</v>
+        <v>45337.77947916667</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1714,14 +1714,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 21477-2025</t>
+          <t>A 11256-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45782.59390046296</v>
+        <v>45371.66233796296</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1771,14 +1771,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 12977-2025</t>
+          <t>A 38-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45734.45465277778</v>
+        <v>44564.37274305556</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1828,14 +1828,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 22033-2025</t>
+          <t>A 8639-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45785.29449074074</v>
+        <v>44977.95614583333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1885,14 +1885,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 61167-2024</t>
+          <t>A 60809-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45645</v>
+        <v>45644.61414351852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1942,14 +1942,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 44926-2025</t>
+          <t>A 62804-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45918.55856481481</v>
+        <v>45271</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1999,14 +1999,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 21536-2024</t>
+          <t>A 88-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45441.59925925926</v>
+        <v>45659.46386574074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2056,14 +2056,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 43067-2024</t>
+          <t>A 22953-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45567.47446759259</v>
+        <v>45072</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2113,14 +2113,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 12273-2024</t>
+          <t>A 21477-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45378.47817129629</v>
+        <v>45782.59390046296</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2170,14 +2170,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 33201-2023</t>
+          <t>A 43067-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45127.42379629629</v>
+        <v>45567.47446759259</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2227,14 +2227,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 6042-2024</t>
+          <t>A 21536-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45336</v>
+        <v>45441.59925925926</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2284,14 +2284,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 37570-2025</t>
+          <t>A 12977-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45880.37358796296</v>
+        <v>45734.45465277778</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2341,14 +2341,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 22953-2023</t>
+          <t>A 61167-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45072</v>
+        <v>45645</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2398,14 +2398,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 62804-2023</t>
+          <t>A 22033-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45271</v>
+        <v>45785.29449074074</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.6</v>
+        <v>5.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2455,14 +2455,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 3811-2024</t>
+          <t>A 56133-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45321.673125</v>
+        <v>45240</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2512,14 +2512,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 3676-2022</t>
+          <t>A 44926-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44586</v>
+        <v>45918.55856481481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2569,14 +2569,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 6258-2024</t>
+          <t>A 19295-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45337.77947916667</v>
+        <v>45769.56212962963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2626,14 +2626,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 62768-2025</t>
+          <t>A 12273-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>46008.59856481481</v>
+        <v>45378.47817129629</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2683,14 +2683,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 88-2025</t>
+          <t>A 3811-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45659.46386574074</v>
+        <v>45321.673125</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2740,14 +2740,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 8639-2023</t>
+          <t>A 11261-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44977.95614583333</v>
+        <v>45371.67425925926</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2797,14 +2797,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 61178-2024</t>
+          <t>A 6042-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45645</v>
+        <v>45336</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>6.6</v>
+        <v>1.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2854,14 +2854,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 46379-2025</t>
+          <t>A 33201-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45925</v>
+        <v>45127.42379629629</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>7.1</v>
+        <v>0.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2911,14 +2911,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 60809-2024</t>
+          <t>A 37570-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45644.61414351852</v>
+        <v>45880.37358796296</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2968,14 +2968,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 46384-2025</t>
+          <t>A 3676-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45925</v>
+        <v>44586</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3025,14 +3025,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 48265-2025</t>
+          <t>A 24771-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45933</v>
+        <v>45084.64277777778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3082,14 +3082,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 31321-2025</t>
+          <t>A 62768-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45833</v>
+        <v>46008.59856481481</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>6.4</v>
+        <v>4.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3139,14 +3139,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 11256-2024</t>
+          <t>A 61178-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45371.66233796296</v>
+        <v>45645</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.6</v>
+        <v>6.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3196,14 +3196,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 24771-2023</t>
+          <t>A 46379-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45084.64277777778</v>
+        <v>45925</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>7.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3253,14 +3253,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 56133-2023</t>
+          <t>A 10654-2026</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45240</v>
+        <v>46078.35840277778</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3272,8 +3272,13 @@
           <t>MÖLNDAL</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3310,14 +3315,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 11261-2024</t>
+          <t>A 31321-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45371.67425925926</v>
+        <v>45833</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3330,7 +3335,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.7</v>
+        <v>6.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3364,17 +3369,17 @@
       </c>
       <c r="R46" s="2" t="inlineStr"/>
     </row>
-    <row r="47">
+    <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 19295-2025</t>
+          <t>A 48265-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45769.56212962963</v>
+        <v>45933</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3387,7 +3392,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3420,6 +3425,187 @@
         <v>0</v>
       </c>
       <c r="R47" s="2" t="inlineStr"/>
+    </row>
+    <row r="48" ht="15" customHeight="1">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>A 10672-2026</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>46078.40140046296</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>MÖLNDAL</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" s="2" t="inlineStr"/>
+    </row>
+    <row r="49" ht="15" customHeight="1">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>A 46384-2025</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>45925</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>MÖLNDAL</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" s="2" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>A 10661-2026</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>46078.37611111111</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>MÖLNDAL</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MÖLNDAL.xlsx
+++ b/Översikt MÖLNDAL.xlsx
@@ -575,7 +575,7 @@
         <v>44322</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44551</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44586.54900462963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,14 +833,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 49789-2023</t>
+          <t>A 393-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45212</v>
+        <v>45663</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -853,17 +853,17 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>1</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -887,45 +887,49 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>Trubbfjädermossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 49789-2023 artfynd.xlsx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 393-2025 artfynd.xlsx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 49789-2023 karta.png", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 393-2025 karta.png", "A 393-2025")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 49789-2023 FSC-klagomål.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 393-2025 FSC-klagomål.docx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 49789-2023 FSC-klagomål mail.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 393-2025 FSC-klagomål mail.docx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 49789-2023 tillsynsbegäran.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 393-2025 tillsynsbegäran.docx", "A 393-2025")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 49789-2023 tillsynsbegäran mail.docx", "A 49789-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 393-2025 tillsynsbegäran mail.docx", "A 393-2025")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/fåglar/A 393-2025 prioriterade fågelarter.docx", "A 393-2025")</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 393-2025</t>
+          <t>A 2842-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45663</v>
+        <v>45677</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -938,7 +942,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.1</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -947,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -962,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -972,49 +976,49 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 393-2025 artfynd.xlsx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 2842-2025 artfynd.xlsx", "A 2842-2025")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 393-2025 karta.png", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 2842-2025 karta.png", "A 2842-2025")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 393-2025 FSC-klagomål.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 2842-2025 FSC-klagomål.docx", "A 2842-2025")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 393-2025 FSC-klagomål mail.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 2842-2025 FSC-klagomål mail.docx", "A 2842-2025")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 393-2025 tillsynsbegäran.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 2842-2025 tillsynsbegäran.docx", "A 2842-2025")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 393-2025 tillsynsbegäran mail.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 2842-2025 tillsynsbegäran mail.docx", "A 2842-2025")</f>
         <v/>
       </c>
       <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/fåglar/A 393-2025 prioriterade fågelarter.docx", "A 393-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/fåglar/A 2842-2025 prioriterade fågelarter.docx", "A 2842-2025")</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 2842-2025</t>
+          <t>A 34574-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45677</v>
+        <v>45847.59914351852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1027,7 +1031,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.7</v>
+        <v>7.4</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -1061,49 +1065,45 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 2842-2025 artfynd.xlsx", "A 2842-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 34574-2025 artfynd.xlsx", "A 34574-2025")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 2842-2025 karta.png", "A 2842-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 34574-2025 karta.png", "A 34574-2025")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 2842-2025 FSC-klagomål.docx", "A 2842-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 34574-2025 FSC-klagomål.docx", "A 34574-2025")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 2842-2025 FSC-klagomål mail.docx", "A 2842-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 34574-2025 FSC-klagomål mail.docx", "A 34574-2025")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 2842-2025 tillsynsbegäran.docx", "A 2842-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 34574-2025 tillsynsbegäran.docx", "A 34574-2025")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 2842-2025 tillsynsbegäran mail.docx", "A 2842-2025")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/fåglar/A 2842-2025 prioriterade fågelarter.docx", "A 2842-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 34574-2025 tillsynsbegäran mail.docx", "A 34574-2025")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 34574-2025</t>
+          <t>A 49789-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45847.59914351852</v>
+        <v>45212</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1116,13 +1116,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>7.4</v>
+        <v>3.8</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1150,31 +1150,31 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Trubbfjädermossa</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 34574-2025 artfynd.xlsx", "A 34574-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/artfynd/A 49789-2023 artfynd.xlsx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 34574-2025 karta.png", "A 34574-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/kartor/A 49789-2023 karta.png", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 34574-2025 FSC-klagomål.docx", "A 34574-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomål/A 49789-2023 FSC-klagomål.docx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 34574-2025 FSC-klagomål mail.docx", "A 34574-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/klagomålsmail/A 49789-2023 FSC-klagomål mail.docx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 34574-2025 tillsynsbegäran.docx", "A 34574-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsyn/A 49789-2023 tillsynsbegäran.docx", "A 49789-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 34574-2025 tillsynsbegäran mail.docx", "A 34574-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1481/tillsynsmail/A 49789-2023 tillsynsbegäran mail.docx", "A 49789-2023")</f>
         <v/>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
         <v>44516.6296875</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>44831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44831</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44586.54415509259</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44722.56074074074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44322</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>44462</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>44739.6103125</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>45337.77947916667</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>45371.66233796296</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>44564.37274305556</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1828,14 +1828,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 8639-2023</t>
+          <t>A 12977-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44977.95614583333</v>
+        <v>45734.45465277778</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1885,14 +1885,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 60809-2024</t>
+          <t>A 61167-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45644.61414351852</v>
+        <v>45645</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1942,14 +1942,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 62804-2023</t>
+          <t>A 8639-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45271</v>
+        <v>44977.95614583333</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1999,14 +1999,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 88-2025</t>
+          <t>A 60809-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45659.46386574074</v>
+        <v>45644.61414351852</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2056,14 +2056,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 22953-2023</t>
+          <t>A 44926-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45072</v>
+        <v>45918.55856481481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2113,14 +2113,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 21477-2025</t>
+          <t>A 88-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45782.59390046296</v>
+        <v>45659.46386574074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2170,14 +2170,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 43067-2024</t>
+          <t>A 6042-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45567.47446759259</v>
+        <v>45336</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2227,14 +2227,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 21536-2024</t>
+          <t>A 33201-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45441.59925925926</v>
+        <v>45127.42379629629</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2284,14 +2284,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 12977-2025</t>
+          <t>A 37570-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45734.45465277778</v>
+        <v>45880.37358796296</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2341,14 +2341,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 61167-2024</t>
+          <t>A 43067-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45645</v>
+        <v>45567.47446759259</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2398,14 +2398,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 22033-2025</t>
+          <t>A 21536-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45785.29449074074</v>
+        <v>45441.59925925926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5.2</v>
+        <v>2.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>45240</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2512,14 +2512,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 44926-2025</t>
+          <t>A 62768-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45918.55856481481</v>
+        <v>46008.59856481481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2576,7 +2576,7 @@
         <v>45769.56212962963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2626,14 +2626,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 12273-2024</t>
+          <t>A 61178-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45378.47817129629</v>
+        <v>45645</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.9</v>
+        <v>6.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2683,14 +2683,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 3811-2024</t>
+          <t>A 12273-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45321.673125</v>
+        <v>45378.47817129629</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2740,14 +2740,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 11261-2024</t>
+          <t>A 3811-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45371.67425925926</v>
+        <v>45321.673125</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2797,14 +2797,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 6042-2024</t>
+          <t>A 46379-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45336</v>
+        <v>45925</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.7</v>
+        <v>7.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2854,14 +2854,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 33201-2023</t>
+          <t>A 11261-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45127.42379629629</v>
+        <v>45371.67425925926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2911,14 +2911,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 37570-2025</t>
+          <t>A 10654-2026</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45880.37358796296</v>
+        <v>46078.35840277778</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2930,8 +2930,13 @@
           <t>MÖLNDAL</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2968,14 +2973,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 3676-2022</t>
+          <t>A 31321-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44586</v>
+        <v>45833</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2988,7 +2993,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>6.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3025,14 +3030,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 24771-2023</t>
+          <t>A 48265-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45084.64277777778</v>
+        <v>45933</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3045,7 +3050,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3082,14 +3087,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 62768-2025</t>
+          <t>A 3676-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>46008.59856481481</v>
+        <v>44586</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3102,7 +3107,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3139,14 +3144,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 61178-2024</t>
+          <t>A 10672-2026</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45645</v>
+        <v>46078.40140046296</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3158,8 +3163,13 @@
           <t>MÖLNDAL</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>6.6</v>
+        <v>1.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3196,14 +3206,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 46379-2025</t>
+          <t>A 46384-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
         <v>45925</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3216,7 +3226,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>7.1</v>
+        <v>3.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3253,14 +3263,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 10654-2026</t>
+          <t>A 10661-2026</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>46078.35840277778</v>
+        <v>46078.37611111111</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3278,7 +3288,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3315,14 +3325,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 31321-2025</t>
+          <t>A 24771-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45833</v>
+        <v>45084.64277777778</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3335,7 +3345,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>6.4</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3372,14 +3382,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 48265-2025</t>
+          <t>A 62804-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45933</v>
+        <v>45271</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3392,7 +3402,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3429,14 +3439,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 10672-2026</t>
+          <t>A 22953-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>46078.40140046296</v>
+        <v>45072</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3448,13 +3458,8 @@
           <t>MÖLNDAL</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3491,14 +3496,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 46384-2025</t>
+          <t>A 21477-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45925</v>
+        <v>45782.59390046296</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3511,7 +3516,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3548,14 +3553,14 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 10661-2026</t>
+          <t>A 22033-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>46078.37611111111</v>
+        <v>45785.29449074074</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3567,13 +3572,8 @@
           <t>MÖLNDAL</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>1.9</v>
+        <v>5.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
